--- a/src/main/resources/static/excel/excelTemplate.xlsx
+++ b/src/main/resources/static/excel/excelTemplate.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">已离汉人员信息清单</t>
   </si>
@@ -65,6 +65,20 @@
   </si>
   <si>
     <t xml:space="preserve">创建时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意：
+              1、证件类型取值：身份证、港澳居民来往内地通行证、台湾居民来往大陆通行证、护照、其他）
+             2、滞汉居住方式取值：集体宿舍、自有住房、自住酒店、自行租房、亲友家暂住、政府集中安置、其他
+             3、返程方式：集中统一接送、自驾、铁路、飞机、公路客运
+	     4、不要更改模板的文件结构(不要增删行、列、包括空白行、列)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、滞汉居住方式取值：集体宿舍、自有住房、自住酒店、自行租房、亲友家暂住、政府集中安置、其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、返程方式：集中统一接送、自驾、铁路、飞机、公路客运</t>
   </si>
 </sst>
 </file>
@@ -81,7 +95,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -107,7 +121,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -173,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,6 +200,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,10 +216,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +226,14 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -291,13 +313,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ15"/>
+  <dimension ref="B2:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.93359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.96875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.25"/>
@@ -308,7 +330,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="19.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.34"/>
   </cols>
@@ -331,279 +353,610 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0"/>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0"/>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="9"/>
     </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/static/excel/excelTemplate.xlsx
+++ b/src/main/resources/static/excel/excelTemplate.xlsx
@@ -72,7 +72,7 @@
              2、滞汉居住方式取值：集体宿舍、自有住房、自住酒店、自行租房、亲友家暂住、政府集中安置、其他
              3、返程方式：集中统一接送、自驾、铁路、飞机、公路客运
 	     4、不要更改模板的文件结构(不要增删行、列、包括空白行、列)
-</t>
+	     5、序号列虽然不存数据库，但是必须要填，表头和序号列是界定数据区域的标志</t>
   </si>
   <si>
     <t xml:space="preserve">2、滞汉居住方式取值：集体宿舍、自有住房、自住酒店、自行租房、亲友家暂住、政府集中安置、其他</t>
@@ -316,10 +316,10 @@
   <dimension ref="B2:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.96875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.25"/>

--- a/src/main/resources/static/excel/excelTemplate.xlsx
+++ b/src/main/resources/static/excel/excelTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">已离汉人员信息清单</t>
   </si>
@@ -67,18 +67,12 @@
     <t xml:space="preserve">创建时间</t>
   </si>
   <si>
-    <t xml:space="preserve">注意：
-              1、证件类型取值：身份证、港澳居民来往内地通行证、台湾居民来往大陆通行证、护照、其他）
-             2、滞汉居住方式取值：集体宿舍、自有住房、自住酒店、自行租房、亲友家暂住、政府集中安置、其他
-             3、返程方式：集中统一接送、自驾、铁路、飞机、公路客运
-	     4、不要更改模板的文件结构(不要增删行、列、包括空白行、列)
-	     5、序号列虽然不存数据库，但是必须要填，表头和序号列是界定数据区域的标志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、滞汉居住方式取值：集体宿舍、自有住房、自住酒店、自行租房、亲友家暂住、政府集中安置、其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、返程方式：集中统一接送、自驾、铁路、飞机、公路客运</t>
+    <t xml:space="preserve">注意:   
+ 1、证件类型取值：身份证、港澳居民来往内地通行证、台湾居民来往大陆通行证、护照、其他
+ 2、滞汉居住方式取值：集体宿舍、自有住房、自住酒店、自行租房、亲友家暂住、政府集中安置点、其他
+ 3、返程方式：集中统一接送、自驾、铁路、飞机、公路客运
+ 4、不要更改模板的文件结构(不要增删行、列、包括空白行、列)
+ 5、序号列必须填,它和表头、表名不能更改或删除。 </t>
   </si>
 </sst>
 </file>
@@ -90,7 +84,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$-804]yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,19 +118,20 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -187,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,8 +207,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -224,16 +231,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -245,66 +248,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -313,26 +256,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:O1048576"/>
+  <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.38"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -360,10 +303,10 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -397,28 +340,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="9"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -431,10 +374,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="9"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -447,10 +390,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="9"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -463,10 +406,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="9"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -479,10 +422,10 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="9"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -495,10 +438,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="9"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -511,10 +454,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -527,10 +470,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -541,12 +484,12 @@
       <c r="N12" s="5"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="9"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -557,12 +500,12 @@
       <c r="N13" s="5"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -573,12 +516,12 @@
       <c r="N14" s="5"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -589,12 +532,12 @@
       <c r="N15" s="5"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -605,12 +548,12 @@
       <c r="N16" s="5"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -621,12 +564,12 @@
       <c r="N17" s="5"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="9"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -637,12 +580,12 @@
       <c r="N18" s="5"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="9"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -653,12 +596,12 @@
       <c r="N19" s="5"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="9"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -669,12 +612,12 @@
       <c r="N20" s="5"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="9"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -685,12 +628,12 @@
       <c r="N21" s="5"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="9"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -701,12 +644,12 @@
       <c r="N22" s="5"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="9"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -717,12 +660,12 @@
       <c r="N23" s="5"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="9"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -733,12 +676,12 @@
       <c r="N24" s="5"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="9"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -749,12 +692,12 @@
       <c r="N25" s="5"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="9"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -765,12 +708,12 @@
       <c r="N26" s="5"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="9"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -781,12 +724,12 @@
       <c r="N27" s="5"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -799,10 +742,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="9"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -815,10 +758,10 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="9"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -831,10 +774,10 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="9"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -845,118 +788,133 @@
       <c r="N31" s="5"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="11" t="s">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I41"/>
+    <mergeCell ref="B33:I43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
